--- a/LAPEntries/LAP-PCR-OT2-1.0.0/VariablesPCR.xlsx
+++ b/LAPEntries/LAP-PCR-OT2-1.0.0/VariablesPCR.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\scripts_subir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anama\OneDrive\Documentos\archivos_en_OT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD75A45-2787-4CCB-A104-D148471CB4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B661F4-DA7B-4FED-AABF-B4702B5FBDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{473715F8-EFC5-4B04-98D1-69550B1B2D95}"/>
+    <workbookView xWindow="2170" yWindow="680" windowWidth="14400" windowHeight="7810" firstSheet="3" activeTab="4" xr2:uid="{473715F8-EFC5-4B04-98D1-69550B1B2D95}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="6" r:id="rId1"/>
-    <sheet name="ReagentsPerReaction" sheetId="5" r:id="rId2"/>
+    <sheet name="SamplesPlateVariables" sheetId="9" r:id="rId2"/>
     <sheet name="PipetteVariables" sheetId="8" r:id="rId3"/>
-    <sheet name="SamplesPlateVariables" sheetId="9" r:id="rId4"/>
+    <sheet name="ReagentsPerReaction" sheetId="5" r:id="rId4"/>
     <sheet name="ModuleVariables" sheetId="10" r:id="rId5"/>
-    <sheet name="TemperatureProfile" sheetId="1" r:id="rId6"/>
+    <sheet name="TemperatureProfile" sheetId="11" r:id="rId6"/>
+    <sheet name="mapPlate1" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="124">
   <si>
     <t>Value</t>
   </si>
@@ -99,9 +100,6 @@
     <t>Number of Source Plates</t>
   </si>
   <si>
-    <t>Variables Names</t>
-  </si>
-  <si>
     <t>API Name Right Pipette</t>
   </si>
   <si>
@@ -162,98 +160,267 @@
     <t>coolblocknew_12_tuberack_1500ul</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Plate 1</t>
+  </si>
+  <si>
+    <t>Plate 2</t>
+  </si>
+  <si>
+    <t>Plate 3</t>
+  </si>
+  <si>
+    <t>Plate 4</t>
+  </si>
+  <si>
+    <t>Plate 5</t>
+  </si>
+  <si>
+    <t>Plate 6</t>
+  </si>
+  <si>
+    <t>Plate 7</t>
+  </si>
+  <si>
+    <t>Plate 8</t>
+  </si>
+  <si>
+    <t>Plate 9</t>
+  </si>
+  <si>
+    <t>Plate 10</t>
+  </si>
+  <si>
+    <t>Plate 11</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>RPM Heater-Shaker</t>
+  </si>
+  <si>
+    <t>API Name Eppendorf Reagents Rack</t>
+  </si>
+  <si>
+    <t>Final volume (uL)</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Number Samples</t>
+  </si>
+  <si>
+    <t>Well Start</t>
+  </si>
+  <si>
+    <t>Extra Pipetting Factor</t>
+  </si>
+  <si>
+    <t>API Name Heater-Shaker Labware</t>
+  </si>
+  <si>
+    <t>abgeneskirted_96_wellplate_200ul</t>
+  </si>
+  <si>
+    <t>opentrons_96_tiprack_20ul</t>
+  </si>
+  <si>
+    <t>Map IDs</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>mapPlate1</t>
+  </si>
+  <si>
+    <t>Sample 1</t>
+  </si>
+  <si>
+    <t>Control+</t>
+  </si>
+  <si>
+    <t>Control-</t>
+  </si>
+  <si>
+    <t>Sample 2</t>
+  </si>
+  <si>
+    <t>Sample 3</t>
+  </si>
+  <si>
+    <t>Sample 4</t>
+  </si>
+  <si>
+    <t>Sample 5</t>
+  </si>
+  <si>
+    <t>Sample 6</t>
+  </si>
+  <si>
+    <t>Sample 7</t>
+  </si>
+  <si>
+    <t>Sample 8</t>
+  </si>
+  <si>
+    <t>Sample 9</t>
+  </si>
+  <si>
+    <t>Sample 10</t>
+  </si>
+  <si>
+    <t>Sample 11</t>
+  </si>
+  <si>
+    <t>Sample 12</t>
+  </si>
+  <si>
+    <t>Sample 13</t>
+  </si>
+  <si>
+    <t>Sample 14</t>
+  </si>
+  <si>
+    <t>Sample 15</t>
+  </si>
+  <si>
+    <t>Sample 16</t>
+  </si>
+  <si>
+    <t>Sample 17</t>
+  </si>
+  <si>
+    <t>Sample 18</t>
+  </si>
+  <si>
+    <t>Sample 19</t>
+  </si>
+  <si>
+    <t>Sample 20</t>
+  </si>
+  <si>
+    <t>Sample 21</t>
+  </si>
+  <si>
+    <t>Sample 22</t>
+  </si>
+  <si>
+    <t>Sample 23</t>
+  </si>
+  <si>
+    <t>Sample 24</t>
+  </si>
+  <si>
+    <t>Sample 25</t>
+  </si>
+  <si>
+    <t>Sample 26</t>
+  </si>
+  <si>
+    <t>Sample 27</t>
+  </si>
+  <si>
+    <t>Sample 28</t>
+  </si>
+  <si>
+    <t>Sample 29</t>
+  </si>
+  <si>
+    <t>Sample 30</t>
+  </si>
+  <si>
+    <t>Sample 31</t>
+  </si>
+  <si>
+    <t>Sample 32</t>
+  </si>
+  <si>
+    <t>Sample 33</t>
+  </si>
+  <si>
+    <t>Sample 34</t>
+  </si>
+  <si>
+    <t>Sample 35</t>
+  </si>
+  <si>
+    <t>Sample 36</t>
+  </si>
+  <si>
+    <t>Sample 37</t>
+  </si>
+  <si>
+    <t>Sample 38</t>
+  </si>
+  <si>
+    <t>Sample 39</t>
+  </si>
+  <si>
+    <t>Sample 40</t>
+  </si>
+  <si>
+    <t>Sample 41</t>
+  </si>
+  <si>
+    <t>Sample 42</t>
+  </si>
+  <si>
+    <t>Sample 44</t>
+  </si>
+  <si>
+    <t>Sample 43</t>
+  </si>
+  <si>
+    <t>Sample 45</t>
+  </si>
+  <si>
+    <t>Sample 46</t>
+  </si>
+  <si>
     <t>finalMapPCR</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>opentrons_24_tuberack_1500ul_shaker</t>
-  </si>
-  <si>
-    <t>Plate 1</t>
-  </si>
-  <si>
-    <t>Plate 2</t>
-  </si>
-  <si>
-    <t>Plate 3</t>
-  </si>
-  <si>
-    <t>Plate 4</t>
-  </si>
-  <si>
-    <t>Plate 5</t>
-  </si>
-  <si>
-    <t>Plate 6</t>
-  </si>
-  <si>
-    <t>Plate 7</t>
-  </si>
-  <si>
-    <t>Plate 8</t>
-  </si>
-  <si>
-    <t>Plate 9</t>
-  </si>
-  <si>
-    <t>Plate 10</t>
-  </si>
-  <si>
-    <t>Plate 11</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>G12, H12</t>
-  </si>
-  <si>
-    <t>RPM Heater-Shaker</t>
-  </si>
-  <si>
-    <t>API Name Eppendorf Reagents Rack</t>
-  </si>
-  <si>
-    <t>Final volume (uL)</t>
-  </si>
-  <si>
-    <t>Variable Name</t>
-  </si>
-  <si>
-    <t>Number Samples</t>
-  </si>
-  <si>
-    <t>Well Start</t>
-  </si>
-  <si>
-    <t>Extra Pipetting Factor</t>
-  </si>
-  <si>
-    <t>API Name Heater-Shaker Labware</t>
-  </si>
-  <si>
-    <t>abgeneskirted_96_wellplate_200ul</t>
-  </si>
-  <si>
-    <t>opentrons_96_tiprack_20ul</t>
+    <t>B4, C6</t>
+  </si>
+  <si>
+    <t>A12, B12</t>
+  </si>
+  <si>
+    <t>opentrons_24_tuberack_1500ul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -371,9 +538,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -383,8 +549,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,30 +690,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA44EA5F-4994-4659-985C-368DE734CEE8}" name="Tabla4" displayName="Tabla4" ref="A1:B8" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="A1:B8" xr:uid="{AA44EA5F-4994-4659-985C-368DE734CEE8}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F4F27CEF-F107-42D4-8A3C-025E7F0E339A}" name="Variable Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{26ABEA34-6351-40CB-91C3-7967CD41D4EB}" name="Value" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E1EDAF5-20FD-4679-9C98-4DA26EE346E4}" name="Tabla3" displayName="Tabla3" ref="A1:B8" totalsRowShown="0">
-  <autoFilter ref="A1:B8" xr:uid="{4E1EDAF5-20FD-4679-9C98-4DA26EE346E4}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F2E4A071-99AE-4469-981B-D2C4D76A616A}" name="Variable Name"/>
-    <tableColumn id="2" xr3:uid="{703090E3-8D59-4BD5-9495-B51CA3F36697}" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6DBD57AA-CB0F-4313-AA59-74F84E1EC192}" name="Tabla8" displayName="Tabla8" ref="A1:L5" totalsRowShown="0">
-  <autoFilter ref="A1:L5" xr:uid="{6DBD57AA-CB0F-4313-AA59-74F84E1EC192}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6DBD57AA-CB0F-4313-AA59-74F84E1EC192}" name="Tabla8" displayName="Tabla8" ref="A1:L6" totalsRowShown="0">
+  <autoFilter ref="A1:L6" xr:uid="{6DBD57AA-CB0F-4313-AA59-74F84E1EC192}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{21289094-7D98-4FF5-9E62-8BB084FF6E8A}" name="Variable Name"/>
     <tableColumn id="2" xr3:uid="{7F78802D-4575-4CD9-BE65-CFE812AFB233}" name="Plate 1"/>
@@ -566,11 +710,33 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E1EDAF5-20FD-4679-9C98-4DA26EE346E4}" name="Tabla3" displayName="Tabla3" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8" xr:uid="{4E1EDAF5-20FD-4679-9C98-4DA26EE346E4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F2E4A071-99AE-4469-981B-D2C4D76A616A}" name="Variable Name"/>
+    <tableColumn id="2" xr3:uid="{703090E3-8D59-4BD5-9495-B51CA3F36697}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA44EA5F-4994-4659-985C-368DE734CEE8}" name="Tabla4" displayName="Tabla4" ref="A1:B8" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="A1:B8" xr:uid="{AA44EA5F-4994-4659-985C-368DE734CEE8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F4F27CEF-F107-42D4-8A3C-025E7F0E339A}" name="Variable Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{26ABEA34-6351-40CB-91C3-7967CD41D4EB}" name="Value" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{79C2EDAE-0C73-4906-95FF-AEC7858252C8}" name="Tabla9" displayName="Tabla9" ref="A1:B9" totalsRowShown="0">
   <autoFilter ref="A1:B9" xr:uid="{79C2EDAE-0C73-4906-95FF-AEC7858252C8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A654BA48-D03C-4462-8E3A-E63BDBC16A95}" name="Variables Names"/>
+    <tableColumn id="1" xr3:uid="{A654BA48-D03C-4462-8E3A-E63BDBC16A95}" name="Variable Name"/>
     <tableColumn id="2" xr3:uid="{2ABB03E3-62E8-40D3-9656-E95A8A48C82D}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -591,7 +757,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -890,32 +1056,32 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.109375" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" customWidth="1"/>
+    <col min="1" max="1" width="42.08984375" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -923,36 +1089,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -965,80 +1131,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C751B27-9A5A-409D-9176-CEB62BEB435F}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9720BD1E-ABA7-4A65-AB54-851CC93F0577}">
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="1" max="1" width="39.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="8">
-        <v>0.2</v>
+      <c r="B6" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1054,77 +1234,77 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1136,83 +1316,80 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9720BD1E-ABA7-4A65-AB54-851CC93F0577}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C751B27-9A5A-409D-9176-CEB62BEB435F}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1"/>
+    <col min="1" max="1" width="37.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="B7" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1227,49 +1404,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2784CC67-C487-42BF-BF0C-FBCA864F3331}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.36328125" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1277,33 +1454,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1315,22 +1492,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C114D5DB-B8F0-4D54-A269-FFC044F69928}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6FC2B-DFCD-4438-97BB-B62C1012931E}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>98</v>
       </c>
@@ -1358,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>98</v>
       </c>
@@ -1372,7 +1543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1386,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>72</v>
       </c>
@@ -1400,7 +1571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>98</v>
       </c>
@@ -1414,7 +1585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>45</v>
       </c>
@@ -1428,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>99</v>
       </c>
@@ -1442,7 +1613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>72</v>
       </c>
@@ -1456,14 +1627,247 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104DFA0A-2FD3-4034-B419-B7249193765C}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LAPEntries/LAP-PCR-OT2-1.0.0/VariablesPCR.xlsx
+++ b/LAPEntries/LAP-PCR-OT2-1.0.0/VariablesPCR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anama\OneDrive\Documentos\archivos_en_OT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\archivos_en_produccion\scripts_conNuevasFunciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B661F4-DA7B-4FED-AABF-B4702B5FBDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1310D677-D752-4383-BB27-B5059C451678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="680" windowWidth="14400" windowHeight="7810" firstSheet="3" activeTab="4" xr2:uid="{473715F8-EFC5-4B04-98D1-69550B1B2D95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{473715F8-EFC5-4B04-98D1-69550B1B2D95}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="6" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>Final Map Name</t>
   </si>
   <si>
-    <t>vwrblueprintdepth105_96_wellplate_390ul</t>
-  </si>
-  <si>
     <t>coolblocknew_12_tuberack_1500ul</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>API Name Heater-Shaker Labware</t>
   </si>
   <si>
-    <t>abgeneskirted_96_wellplate_200ul</t>
-  </si>
-  <si>
     <t>opentrons_96_tiprack_20ul</t>
   </si>
   <si>
@@ -412,7 +406,13 @@
     <t>A12, B12</t>
   </si>
   <si>
-    <t>opentrons_24_tuberack_1500ul</t>
+    <t>3dprinted_opentrons_shaker_1.5mleppendorf</t>
+  </si>
+  <si>
+    <t>nest_96_wellplate_200ul_flat</t>
+  </si>
+  <si>
+    <t>biorad_96_wellplate_200ul_pcr</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1056,32 +1056,32 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.08984375" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1089,36 +1089,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1138,87 +1138,87 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.1796875" customWidth="1"/>
+    <col min="1" max="1" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>56</v>
       </c>
       <c r="B2">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1237,21 +1237,21 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1275,31 +1275,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1323,20 +1323,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.81640625" customWidth="1"/>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1376,17 +1376,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="7">
         <v>0.2</v>
@@ -1408,45 +1408,45 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.36328125" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1454,33 +1454,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1499,9 +1499,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>98</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>98</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>72</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>98</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>45</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>99</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>72</v>
       </c>
@@ -1643,9 +1643,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1683,188 +1683,188 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>90</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>98</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>106</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
         <v>114</v>
       </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>84</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>92</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>100</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>108</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>94</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>102</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>110</v>
       </c>
-      <c r="G6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>95</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>103</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>111</v>
-      </c>
-      <c r="G7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
